--- a/Gaspar Velazco Juan Francisco 20212.xlsx
+++ b/Gaspar Velazco Juan Francisco 20212.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="742">
   <si>
     <t>NC</t>
   </si>
@@ -781,6 +781,9 @@
     <t>DE JESUS</t>
   </si>
   <si>
+    <t>LARA</t>
+  </si>
+  <si>
     <t>MARTINEZ</t>
   </si>
   <si>
@@ -811,6 +814,9 @@
     <t>PAZ</t>
   </si>
   <si>
+    <t>VILLAR</t>
+  </si>
+  <si>
     <t>MONTERO</t>
   </si>
   <si>
@@ -856,6 +862,9 @@
     <t>SALOMON</t>
   </si>
   <si>
+    <t>VICTOR SAUL</t>
+  </si>
+  <si>
     <t>ALEXIS YAIR</t>
   </si>
   <si>
@@ -907,6 +916,9 @@
     <t>salhomartinez@gmail.com</t>
   </si>
   <si>
+    <t>villars789@gmail.com</t>
+  </si>
+  <si>
     <t>alesandromontero58@gmail.com</t>
   </si>
   <si>
@@ -961,6 +973,9 @@
     <t>2722606082</t>
   </si>
   <si>
+    <t>2721691246</t>
+  </si>
+  <si>
     <t>2721811447</t>
   </si>
   <si>
@@ -1030,6 +1045,9 @@
     <t>SALOMÓN DE JESUS EVARISTO</t>
   </si>
   <si>
+    <t>LETICIA VILLAR HERNANDEZ</t>
+  </si>
+  <si>
     <t>ALEJANDRO MARTÍNEZ AMEZCUA</t>
   </si>
   <si>
@@ -1069,6 +1087,9 @@
     <t>salomartinez9610@gmail.com</t>
   </si>
   <si>
+    <t>luna13.notaria@gmail.com</t>
+  </si>
+  <si>
     <t>Alesandromontero58@gmail.com</t>
   </si>
   <si>
@@ -1105,6 +1126,9 @@
     <t>2721843803</t>
   </si>
   <si>
+    <t>2722328582</t>
+  </si>
+  <si>
     <t>2722290436</t>
   </si>
   <si>
@@ -1841,9 +1865,6 @@
   </si>
   <si>
     <t>HUERTA</t>
-  </si>
-  <si>
-    <t>LARA</t>
   </si>
   <si>
     <t>TLAXCALA</t>
@@ -3740,7 +3761,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3801,19 +3822,19 @@
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="G2" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="H2" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -3827,25 +3848,25 @@
         <v>249</v>
       </c>
       <c r="C3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F3" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G3" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H3" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="J3" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -3859,25 +3880,25 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E4" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F4" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G4" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H4" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="J4" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -3891,28 +3912,28 @@
         <v>250</v>
       </c>
       <c r="C5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E5" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F5" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G5" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="H5" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="I5" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="J5" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -3926,25 +3947,25 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E6" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F6" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H6" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="I6" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="J6" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -3961,19 +3982,19 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="H7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -3990,25 +4011,25 @@
         <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E8" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F8" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G8" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="H8" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="I8" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="J8" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -4022,28 +4043,28 @@
         <v>252</v>
       </c>
       <c r="C9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D9" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E9" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F9" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G9" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="H9" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="I9" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="J9" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -4060,22 +4081,22 @@
         <v>248</v>
       </c>
       <c r="D10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E10" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F10" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="H10" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="I10" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="J10" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -4092,22 +4113,22 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E11" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F11" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H11" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="I11" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="J11" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -4121,28 +4142,28 @@
         <v>253</v>
       </c>
       <c r="C12" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D12" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E12" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F12" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G12" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="H12" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="I12" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="J12" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -4150,69 +4171,63 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>19330051920067</v>
+        <v>19330051920064</v>
       </c>
       <c r="B13" t="s">
         <v>254</v>
       </c>
       <c r="C13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D13" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E13" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F13" t="s">
-        <v>314</v>
-      </c>
-      <c r="G13" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="H13" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="I13" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="J13" t="s">
-        <v>314</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>19330051920068</v>
+        <v>19330051920067</v>
       </c>
       <c r="B14" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D14" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E14" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F14" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G14" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H14" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="I14" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
       <c r="J14" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -4220,31 +4235,34 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>19330051920069</v>
+        <v>19330051920068</v>
       </c>
       <c r="B15" t="s">
         <v>255</v>
       </c>
       <c r="C15" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>283</v>
       </c>
       <c r="E15" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F15" t="s">
-        <v>316</v>
+        <v>320</v>
+      </c>
+      <c r="G15" t="s">
+        <v>320</v>
       </c>
       <c r="H15" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="I15" t="s">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="J15" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -4252,63 +4270,63 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>19330051920074</v>
+        <v>19330051920069</v>
       </c>
       <c r="B16" t="s">
         <v>256</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>268</v>
       </c>
       <c r="D16" t="s">
-        <v>281</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F16" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="H16" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="I16" t="s">
-        <v>299</v>
+        <v>358</v>
       </c>
       <c r="J16" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>18330051920078</v>
+        <v>19330051920074</v>
       </c>
       <c r="B17" t="s">
         <v>257</v>
       </c>
       <c r="C17" t="s">
-        <v>267</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E17" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F17" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="H17" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="I17" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="J17" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -4316,25 +4334,31 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>19330051920075</v>
+        <v>18330051920078</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>258</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>269</v>
       </c>
       <c r="D18" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E18" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F18" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H18" t="s">
-        <v>342</v>
+        <v>347</v>
+      </c>
+      <c r="I18" t="s">
+        <v>359</v>
+      </c>
+      <c r="J18" t="s">
+        <v>373</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -4342,36 +4366,62 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
+        <v>19330051920075</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>286</v>
+      </c>
+      <c r="E19" t="s">
+        <v>305</v>
+      </c>
+      <c r="F19" t="s">
+        <v>324</v>
+      </c>
+      <c r="H19" t="s">
+        <v>348</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
         <v>19330051920081</v>
       </c>
-      <c r="B19" t="s">
-        <v>258</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C20" t="s">
         <v>32</v>
       </c>
-      <c r="D19" t="s">
-        <v>284</v>
-      </c>
-      <c r="E19" t="s">
-        <v>302</v>
-      </c>
-      <c r="F19" t="s">
-        <v>320</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="D20" t="s">
+        <v>287</v>
+      </c>
+      <c r="E20" t="s">
+        <v>306</v>
+      </c>
+      <c r="F20" t="s">
         <v>325</v>
       </c>
-      <c r="H19" t="s">
-        <v>343</v>
-      </c>
-      <c r="I19" t="s">
-        <v>353</v>
-      </c>
-      <c r="J19" t="s">
-        <v>366</v>
-      </c>
-      <c r="K19">
+      <c r="G20" t="s">
+        <v>330</v>
+      </c>
+      <c r="H20" t="s">
+        <v>349</v>
+      </c>
+      <c r="I20" t="s">
+        <v>360</v>
+      </c>
+      <c r="J20" t="s">
+        <v>374</v>
+      </c>
+      <c r="K20">
         <v>0</v>
       </c>
     </row>
@@ -4437,31 +4487,31 @@
         <v>19330051920270</v>
       </c>
       <c r="B2" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="E2" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="F2" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="G2" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="H2" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="I2" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="J2" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -4472,31 +4522,31 @@
         <v>19330051920272</v>
       </c>
       <c r="B3" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C3" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="D3" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="E3" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="F3" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="G3" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="H3" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="I3" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="J3" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -4507,28 +4557,28 @@
         <v>19330051920269</v>
       </c>
       <c r="B4" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="E4" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="F4" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="G4" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="H4" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="I4" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -4539,31 +4589,31 @@
         <v>19330051920273</v>
       </c>
       <c r="B5" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C5" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="D5" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="E5" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="F5" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="G5" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="H5" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="I5" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="J5" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -4574,28 +4624,28 @@
         <v>19330051920268</v>
       </c>
       <c r="B6" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C6" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="D6" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="E6" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="F6" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="G6" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="H6" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="J6" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -4606,28 +4656,28 @@
         <v>19330051920274</v>
       </c>
       <c r="B7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="E7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="F7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="H7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="I7" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="J7" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -4641,28 +4691,28 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="D8" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E8" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="F8" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="G8" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="H8" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="I8" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="J8" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -4679,22 +4729,22 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="E9" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="F9" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="H9" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="I9" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="J9" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -4705,28 +4755,28 @@
         <v>18330051920319</v>
       </c>
       <c r="B10" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C10" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="D10" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="E10" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="F10" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="H10" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="I10" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="J10" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -4743,25 +4793,25 @@
         <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="E11" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="F11" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="G11" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="H11" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="I11" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="J11" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -4775,25 +4825,25 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="D12" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="E12" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F12" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="H12" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="I12" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="J12" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -4807,28 +4857,28 @@
         <v>251</v>
       </c>
       <c r="C13" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="D13" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="E13" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="F13" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="G13" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="H13" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="I13" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="J13" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -4842,28 +4892,28 @@
         <v>251</v>
       </c>
       <c r="C14" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="D14" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="E14" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="F14" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="G14" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="H14" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="I14" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="J14" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -4874,31 +4924,31 @@
         <v>19330051920447</v>
       </c>
       <c r="B15" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C15" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="D15" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="E15" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="F15" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="G15" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="H15" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="I15" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="J15" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -4912,28 +4962,28 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="D16" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E16" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="F16" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="G16" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="H16" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="I16" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="J16" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -4944,28 +4994,28 @@
         <v>19330051920286</v>
       </c>
       <c r="B17" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C17" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="D17" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="E17" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="F17" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="G17" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="H17" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="J17" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -4976,28 +5026,28 @@
         <v>18330051920336</v>
       </c>
       <c r="B18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C18" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="D18" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="E18" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="F18" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="H18" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="I18" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="J18" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -5008,28 +5058,28 @@
         <v>19330051920287</v>
       </c>
       <c r="B19" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C19" t="s">
         <v>253</v>
       </c>
       <c r="D19" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="E19" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="F19" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="H19" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="I19" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="J19" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -5043,28 +5093,28 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="D20" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="E20" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="F20" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="G20" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="H20" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="I20" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="J20" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -5081,25 +5131,25 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="E21" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="F21" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="G21" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="H21" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="I21" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="J21" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -5110,28 +5160,28 @@
         <v>19330051920292</v>
       </c>
       <c r="B22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="E22" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="F22" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="G22" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="H22" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="J22" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -5142,31 +5192,31 @@
         <v>19330051920293</v>
       </c>
       <c r="B23" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="E23" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="F23" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="G23" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="H23" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="I23" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="J23" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -5177,28 +5227,28 @@
         <v>19330051920294</v>
       </c>
       <c r="B24" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C24" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="D24" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="E24" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="F24" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="H24" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="I24" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="J24" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -5215,25 +5265,25 @@
         <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="E25" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="F25" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="G25" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="H25" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="I25" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="J25" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -5247,28 +5297,28 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="D26" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="E26" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="F26" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="G26" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="H26" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="I26" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="J26" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -5279,31 +5329,31 @@
         <v>19330051920297</v>
       </c>
       <c r="B27" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C27" t="s">
         <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="E27" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="F27" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="G27" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="H27" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="I27" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="J27" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -5314,31 +5364,31 @@
         <v>19330051920298</v>
       </c>
       <c r="B28" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="C28" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="D28" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="E28" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="F28" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="G28" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="H28" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="I28" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="J28" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -5349,31 +5399,31 @@
         <v>19330051920299</v>
       </c>
       <c r="B29" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="C29" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D29" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="E29" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="F29" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="G29" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="H29" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="I29" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="J29" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -5384,28 +5434,28 @@
         <v>19330051920301</v>
       </c>
       <c r="B30" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C30" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="D30" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="E30" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="F30" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="H30" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="I30" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="J30" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -5416,31 +5466,31 @@
         <v>19330051920443</v>
       </c>
       <c r="B31" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="C31" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="D31" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="E31" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="F31" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="G31" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="H31" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="I31" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="J31" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -5451,28 +5501,28 @@
         <v>19330051920300</v>
       </c>
       <c r="B32" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="C32" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="D32" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="E32" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="F32" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="H32" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="I32" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="J32" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -5483,28 +5533,28 @@
         <v>19330051920305</v>
       </c>
       <c r="B33" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C33" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="D33" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="E33" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="F33" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="H33" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="I33" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="J33" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -5575,22 +5625,22 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="D2" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="E2" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="H2" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="I2" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="J2" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -5601,31 +5651,31 @@
         <v>20330051920318</v>
       </c>
       <c r="B3" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C3" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="D3" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="E3" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="F3" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="G3" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="H3" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="I3" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="J3" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -5636,28 +5686,28 @@
         <v>20330051920320</v>
       </c>
       <c r="B4" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="C4" t="s">
-        <v>608</v>
+        <v>254</v>
       </c>
       <c r="D4" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="E4" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="F4" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="H4" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="I4" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="J4" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -5668,25 +5718,25 @@
         <v>20330051920321</v>
       </c>
       <c r="B5" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="C5" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="D5" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="E5" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="F5" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="G5" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="H5" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -5703,25 +5753,25 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="E6" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="F6" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="G6" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="H6" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="I6" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="J6" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -5735,28 +5785,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="D7" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="E7" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="F7" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="G7" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="H7" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="I7" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="J7" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -5767,28 +5817,28 @@
         <v>20330051920380</v>
       </c>
       <c r="B8" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="C8" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="D8" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="E8" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="F8" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="H8" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="I8" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="J8" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -5805,25 +5855,25 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="E9" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="F9" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="G9" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="H9" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="I9" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="J9" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -5837,28 +5887,28 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="D10" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="E10" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="F10" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="G10" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="H10" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="I10" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="J10" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -5869,31 +5919,31 @@
         <v>20330051920397</v>
       </c>
       <c r="B11" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="C11" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="D11" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E11" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="F11" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="G11" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="H11" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="I11" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="J11" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -5904,28 +5954,28 @@
         <v>20330051920326</v>
       </c>
       <c r="B12" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="E12" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="F12" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="H12" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="I12" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="J12" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -5936,28 +5986,28 @@
         <v>20330051920327</v>
       </c>
       <c r="B13" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="E13" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="F13" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="H13" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="I13" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="J13" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -5968,31 +6018,31 @@
         <v>20330051920328</v>
       </c>
       <c r="B14" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="E14" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="F14" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="G14" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="H14" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="I14" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="J14" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -6003,31 +6053,31 @@
         <v>20330051920396</v>
       </c>
       <c r="B15" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="C15" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="D15" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="E15" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="F15" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="G15" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="H15" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="I15" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="J15" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -6038,31 +6088,31 @@
         <v>20330051920329</v>
       </c>
       <c r="B16" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="C16" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="D16" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E16" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="F16" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="G16" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="H16" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="I16" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="J16" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -6073,28 +6123,28 @@
         <v>20330051920330</v>
       </c>
       <c r="B17" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="E17" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="F17" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="G17" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="H17" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="J17" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -6108,28 +6158,28 @@
         <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="D18" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="E18" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="F18" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="G18" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="H18" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="I18" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="J18" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -6143,28 +6193,28 @@
         <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="D19" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="E19" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="F19" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="G19" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="H19" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="I19" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="J19" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -6175,28 +6225,28 @@
         <v>20330051920335</v>
       </c>
       <c r="B20" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C20" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="D20" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="E20" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="F20" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="H20" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="I20" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="J20" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="K20">
         <v>2</v>

--- a/Gaspar Velazco Juan Francisco 20212.xlsx
+++ b/Gaspar Velazco Juan Francisco 20212.xlsx
@@ -4197,6 +4197,9 @@
       <c r="J13" t="s">
         <v>369</v>
       </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
@@ -5018,7 +5021,7 @@
         <v>590</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5251,7 +5254,7 @@
         <v>596</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:11">
